--- a/Experiment results/Experiment_results (DB1).xlsx
+++ b/Experiment results/Experiment_results (DB1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C9A1F8-8E98-C741-A462-C79F5A6B2E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF7F35-5804-E943-9026-D5B3E84EC9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="660" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
+    <workbookView xWindow="6280" yWindow="1660" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DB078-AD29-9643-8284-9CA89D239134}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -714,34 +714,34 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.5599999999999996</v>
+        <v>3.26</v>
       </c>
       <c r="D6">
-        <v>9.1199999999999992</v>
+        <v>6.52</v>
       </c>
       <c r="E6">
-        <v>13.68</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F6">
-        <v>18.239999999999998</v>
+        <v>13.04</v>
       </c>
       <c r="G6">
-        <v>22.8</v>
+        <v>16.3</v>
       </c>
       <c r="H6">
-        <v>27.36</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="I6">
-        <v>31.92</v>
+        <v>22.82</v>
       </c>
       <c r="J6">
-        <v>36.479999999999997</v>
+        <v>26.08</v>
       </c>
       <c r="K6">
-        <v>41.04</v>
+        <v>29.34</v>
       </c>
       <c r="L6">
-        <v>45.6</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -786,34 +786,34 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.26</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D8">
-        <v>6.52</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E8">
-        <v>9.7799999999999994</v>
+        <v>13.68</v>
       </c>
       <c r="F8">
-        <v>13.04</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="G8">
-        <v>16.3</v>
+        <v>22.8</v>
       </c>
       <c r="H8">
-        <v>19.559999999999999</v>
+        <v>27.36</v>
       </c>
       <c r="I8">
-        <v>22.82</v>
+        <v>31.92</v>
       </c>
       <c r="J8">
-        <v>26.08</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="K8">
-        <v>29.34</v>
+        <v>41.04</v>
       </c>
       <c r="L8">
-        <v>32.6</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -949,34 +949,34 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>22.8</v>
+        <v>16.3</v>
       </c>
       <c r="D15">
-        <v>45.6</v>
+        <v>32.6</v>
       </c>
       <c r="E15">
-        <v>68.400000000000006</v>
+        <v>48.9</v>
       </c>
       <c r="F15">
-        <v>91.2</v>
+        <v>65.2</v>
       </c>
       <c r="G15">
-        <v>114</v>
+        <v>81.5</v>
       </c>
       <c r="H15">
-        <v>136.80000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="I15">
-        <v>159.6</v>
+        <v>114.1</v>
       </c>
       <c r="J15">
-        <v>182.4</v>
+        <v>130.4</v>
       </c>
       <c r="K15">
-        <v>205.2</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="L15">
-        <v>228</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -985,34 +985,34 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>16.3</v>
+        <v>22.8</v>
       </c>
       <c r="D16">
-        <v>32.6</v>
+        <v>45.6</v>
       </c>
       <c r="E16">
-        <v>48.9</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F16">
-        <v>65.2</v>
+        <v>91.2</v>
       </c>
       <c r="G16">
-        <v>81.5</v>
+        <v>114</v>
       </c>
       <c r="H16">
-        <v>97.8</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="I16">
-        <v>114.1</v>
+        <v>159.6</v>
       </c>
       <c r="J16">
-        <v>130.4</v>
+        <v>182.4</v>
       </c>
       <c r="K16">
-        <v>146.69999999999999</v>
+        <v>205.2</v>
       </c>
       <c r="L16">
-        <v>163</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1036,34 +1036,34 @@
         <v>10</v>
       </c>
       <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
         <v>60</v>
       </c>
-      <c r="E20">
+      <c r="I20">
+        <v>70</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+      <c r="K20">
         <v>90</v>
       </c>
-      <c r="F20">
-        <v>120</v>
-      </c>
-      <c r="G20">
-        <v>150</v>
-      </c>
-      <c r="H20">
-        <v>180</v>
-      </c>
-      <c r="I20">
-        <v>210</v>
-      </c>
-      <c r="J20">
-        <v>240</v>
-      </c>
-      <c r="K20">
-        <v>270</v>
-      </c>
       <c r="L20">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1074,34 +1074,34 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>14.483000000000001</v>
+        <v>4.827</v>
       </c>
       <c r="D21">
-        <v>22.314</v>
+        <v>7.4379999999999997</v>
       </c>
       <c r="E21">
-        <v>30.125</v>
+        <v>10.041</v>
       </c>
       <c r="F21">
-        <v>37.917000000000002</v>
+        <v>12.638999999999999</v>
       </c>
       <c r="G21">
-        <v>45.753999999999998</v>
+        <v>15.250999999999999</v>
       </c>
       <c r="H21">
-        <v>53.527000000000001</v>
+        <v>17.841999999999999</v>
       </c>
       <c r="I21">
-        <v>61.323999999999998</v>
+        <v>20.440999999999999</v>
       </c>
       <c r="J21">
-        <v>69.186000000000007</v>
+        <v>23.062000000000001</v>
       </c>
       <c r="K21">
-        <v>76.936999999999998</v>
+        <v>25.645</v>
       </c>
       <c r="L21">
-        <v>84.718999999999994</v>
+        <v>28.239000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1110,34 +1110,34 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>17.547000000000001</v>
+        <v>5.8579999999999997</v>
       </c>
       <c r="D22">
-        <v>28.295000000000002</v>
+        <v>9.4320000000000004</v>
       </c>
       <c r="E22">
-        <v>39.027000000000001</v>
+        <v>13.016</v>
       </c>
       <c r="F22">
-        <v>49.872999999999998</v>
+        <v>16.623999999999999</v>
       </c>
       <c r="G22">
-        <v>60.862000000000002</v>
+        <v>20.286999999999999</v>
       </c>
       <c r="H22">
-        <v>71.623000000000005</v>
+        <v>23.876999999999999</v>
       </c>
       <c r="I22">
-        <v>82.194000000000003</v>
+        <v>27.398</v>
       </c>
       <c r="J22">
-        <v>93.637</v>
+        <v>31.212</v>
       </c>
       <c r="K22">
-        <v>103.38500000000001</v>
+        <v>34.460999999999999</v>
       </c>
       <c r="L22">
-        <v>116.19499999999999</v>
+        <v>38.731999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1146,34 +1146,34 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>12.281000000000001</v>
+        <v>4.093</v>
       </c>
       <c r="D23">
-        <v>14.869</v>
+        <v>4.9560000000000004</v>
       </c>
       <c r="E23">
-        <v>16.905000000000001</v>
+        <v>5.6349999999999998</v>
       </c>
       <c r="F23">
-        <v>19.420999999999999</v>
+        <v>6.4729999999999999</v>
       </c>
       <c r="G23">
-        <v>21.901</v>
+        <v>7.3049999999999997</v>
       </c>
       <c r="H23">
-        <v>24.494</v>
+        <v>8.1649999999999991</v>
       </c>
       <c r="I23">
-        <v>27.178000000000001</v>
+        <v>9.0950000000000006</v>
       </c>
       <c r="J23">
-        <v>29.524999999999999</v>
+        <v>9.8420000000000005</v>
       </c>
       <c r="K23">
-        <v>32.026000000000003</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="L23">
-        <v>34.512</v>
+        <v>11.507999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1184,34 +1184,34 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>68.400000000000006</v>
+        <v>16.3</v>
       </c>
       <c r="D24">
-        <v>136.80000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="E24">
-        <v>205.2</v>
+        <v>48.9</v>
       </c>
       <c r="F24">
-        <v>273.60000000000002</v>
+        <v>65.2</v>
       </c>
       <c r="G24">
-        <v>342</v>
+        <v>81.5</v>
       </c>
       <c r="H24">
-        <v>410.4</v>
+        <v>97.8</v>
       </c>
       <c r="I24">
-        <v>478.8</v>
+        <v>114.1</v>
       </c>
       <c r="J24">
-        <v>547.20000000000005</v>
+        <v>130.4</v>
       </c>
       <c r="K24">
-        <v>615.6</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="L24">
-        <v>684</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1220,34 +1220,34 @@
         <v>6</v>
       </c>
       <c r="C25">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>68</v>
+      </c>
+      <c r="E25">
         <v>102</v>
       </c>
-      <c r="D25">
+      <c r="F25">
+        <v>136</v>
+      </c>
+      <c r="G25">
+        <v>170</v>
+      </c>
+      <c r="H25">
         <v>204</v>
       </c>
-      <c r="E25">
+      <c r="I25">
+        <v>238</v>
+      </c>
+      <c r="J25">
+        <v>272</v>
+      </c>
+      <c r="K25">
         <v>306</v>
       </c>
-      <c r="F25">
-        <v>408</v>
-      </c>
-      <c r="G25">
-        <v>510</v>
-      </c>
-      <c r="H25">
-        <v>612</v>
-      </c>
-      <c r="I25">
-        <v>714</v>
-      </c>
-      <c r="J25">
-        <v>816</v>
-      </c>
-      <c r="K25">
-        <v>918</v>
-      </c>
       <c r="L25">
-        <v>1020</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1256,34 +1256,34 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>48.9</v>
+        <v>22.8</v>
       </c>
       <c r="D26">
-        <v>97.8</v>
+        <v>45.6</v>
       </c>
       <c r="E26">
-        <v>146.69999999999999</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F26">
-        <v>195.6</v>
+        <v>91.2</v>
       </c>
       <c r="G26">
-        <v>244.5</v>
+        <v>114</v>
       </c>
       <c r="H26">
-        <v>293.39999999999998</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="I26">
-        <v>342.3</v>
+        <v>159.6</v>
       </c>
       <c r="J26">
-        <v>391.2</v>
+        <v>182.4</v>
       </c>
       <c r="K26">
-        <v>440.1</v>
+        <v>205.2</v>
       </c>
       <c r="L26">
-        <v>489</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1491,34 +1491,34 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I38">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J38">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -1529,34 +1529,34 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.27700000000000002</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="D39">
-        <v>0.56299999999999994</v>
+        <v>1.6890000000000001</v>
       </c>
       <c r="E39">
-        <v>0.83399999999999996</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="F39">
-        <v>1.1080000000000001</v>
+        <v>3.3239999999999998</v>
       </c>
       <c r="G39">
-        <v>1.3560000000000001</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="H39">
-        <v>1.6279999999999999</v>
+        <v>4.8849999999999998</v>
       </c>
       <c r="I39">
-        <v>1.9379999999999999</v>
+        <v>5.8140000000000001</v>
       </c>
       <c r="J39">
-        <v>2.2160000000000002</v>
+        <v>6.6459999999999999</v>
       </c>
       <c r="K39">
-        <v>2.496</v>
+        <v>7.4359999999999999</v>
       </c>
       <c r="L39">
-        <v>2.8029999999999999</v>
+        <v>8.4090000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -1565,34 +1565,34 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.47299999999999998</v>
+        <v>1.419</v>
       </c>
       <c r="D40">
-        <v>0.95299999999999996</v>
+        <v>2.859</v>
       </c>
       <c r="E40">
-        <v>1.3939999999999999</v>
+        <v>4.1280000000000001</v>
       </c>
       <c r="F40">
-        <v>2.0059999999999998</v>
+        <v>6.0179999999999998</v>
       </c>
       <c r="G40">
-        <v>2.3849999999999998</v>
+        <v>7.1550000000000002</v>
       </c>
       <c r="H40">
-        <v>2.8639999999999999</v>
+        <v>8.5920000000000005</v>
       </c>
       <c r="I40">
-        <v>3.3170000000000002</v>
+        <v>9.9510000000000005</v>
       </c>
       <c r="J40">
-        <v>3.9260000000000002</v>
+        <v>11.778</v>
       </c>
       <c r="K40">
-        <v>4.3170000000000002</v>
+        <v>12.946999999999999</v>
       </c>
       <c r="L40">
-        <v>4.6820000000000004</v>
+        <v>14.045999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -1601,34 +1601,34 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.215</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D41">
-        <v>0.42599999999999999</v>
+        <v>1.276</v>
       </c>
       <c r="E41">
-        <v>0.63700000000000001</v>
+        <v>1.913</v>
       </c>
       <c r="F41">
-        <v>0.83399999999999996</v>
+        <v>2.504</v>
       </c>
       <c r="G41">
-        <v>1.0820000000000001</v>
+        <v>3.2530000000000001</v>
       </c>
       <c r="H41">
-        <v>1.2729999999999999</v>
+        <v>3.8370000000000002</v>
       </c>
       <c r="I41">
-        <v>1.514</v>
+        <v>4.5419999999999998</v>
       </c>
       <c r="J41">
-        <v>1.7729999999999999</v>
+        <v>5.319</v>
       </c>
       <c r="K41">
-        <v>1.9430000000000001</v>
+        <v>5.8289999999999997</v>
       </c>
       <c r="L41">
-        <v>2.0939999999999999</v>
+        <v>6.282</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -1639,34 +1639,34 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>2.64</v>
+        <v>7.92</v>
       </c>
       <c r="D42">
-        <v>5.28</v>
+        <v>15.84</v>
       </c>
       <c r="E42">
-        <v>7.92</v>
+        <v>23.76</v>
       </c>
       <c r="F42">
-        <v>10.56</v>
+        <v>31.68</v>
       </c>
       <c r="G42">
-        <v>13.2</v>
+        <v>39.6</v>
       </c>
       <c r="H42">
-        <v>15.84</v>
+        <v>47.52</v>
       </c>
       <c r="I42">
-        <v>18.48</v>
+        <v>55.44</v>
       </c>
       <c r="J42">
-        <v>12.13</v>
+        <v>63.36</v>
       </c>
       <c r="K42">
-        <v>23.76</v>
+        <v>71.28</v>
       </c>
       <c r="L42">
-        <v>26.41</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -1675,34 +1675,34 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>5.2</v>
+        <v>15.6</v>
       </c>
       <c r="D43">
-        <v>10.4</v>
+        <v>31.2</v>
       </c>
       <c r="E43">
-        <v>15.6</v>
+        <v>46.8</v>
       </c>
       <c r="F43">
-        <v>20.8</v>
+        <v>62.4</v>
       </c>
       <c r="G43">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H43">
-        <v>31.2</v>
+        <v>93.6</v>
       </c>
       <c r="I43">
-        <v>36.4</v>
+        <v>109.2</v>
       </c>
       <c r="J43">
-        <v>41.6</v>
+        <v>124.8</v>
       </c>
       <c r="K43">
-        <v>46.8</v>
+        <v>140.4</v>
       </c>
       <c r="L43">
-        <v>52</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -1711,34 +1711,34 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I44">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J44">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1780,30 +1780,8 @@
       <c r="F48" s="1">
         <v>5</v>
       </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>7</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1">
-        <v>9</v>
-      </c>
-      <c r="K48" s="1">
-        <v>10</v>
-      </c>
-      <c r="L48">
-        <v>11</v>
-      </c>
-      <c r="M48">
-        <v>12</v>
-      </c>
-      <c r="N48">
-        <v>13</v>
-      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
       <c r="O48" s="1">
         <v>14</v>
       </c>
@@ -1830,30 +1808,6 @@
       <c r="F49">
         <v>0.05</v>
       </c>
-      <c r="G49">
-        <v>0.97</v>
-      </c>
-      <c r="H49">
-        <v>0.96</v>
-      </c>
-      <c r="I49">
-        <v>0.98</v>
-      </c>
-      <c r="J49">
-        <v>0.06</v>
-      </c>
-      <c r="K49">
-        <v>0.08</v>
-      </c>
-      <c r="L49">
-        <v>0.98</v>
-      </c>
-      <c r="M49">
-        <v>0.93</v>
-      </c>
-      <c r="N49">
-        <v>0.97</v>
-      </c>
       <c r="O49">
         <v>0.08</v>
       </c>
@@ -1875,34 +1829,10 @@
         <v>0.85</v>
       </c>
       <c r="E50">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.17</v>
-      </c>
-      <c r="G50">
         <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0.83</v>
-      </c>
-      <c r="I50">
-        <v>0.86</v>
-      </c>
-      <c r="J50">
-        <v>0.15</v>
-      </c>
-      <c r="K50">
-        <v>0.18</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>0.81</v>
-      </c>
-      <c r="N50">
-        <v>0.84</v>
       </c>
       <c r="O50">
         <v>0.15</v>
@@ -1913,6 +1843,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A47:P47"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:L1"/>
@@ -1924,11 +1859,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A47:P47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment results/Experiment_results (DB1).xlsx
+++ b/Experiment results/Experiment_results (DB1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Desktop/暂时不用/Code/Song_Paper7_Code/Result2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF7F35-5804-E943-9026-D5B3E84EC9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146C842-9E90-5C43-A904-D3E2CE823C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="1660" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,52 +94,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>The number of tracking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth cost (KB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Ratio of valid data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The number of tracking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth cost (KB)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DB078-AD29-9643-8284-9CA89D239134}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1304,34 +1303,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>19</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>21</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>23</v>
-      </c>
-      <c r="K30" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1372,7 +1371,7 @@
     <row r="32" spans="1:12">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>35.155999999999999</v>
@@ -1440,7 +1439,7 @@
     <row r="34" spans="1:16">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>35.155999999999999</v>
@@ -1743,23 +1742,17 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
@@ -1780,16 +1773,8 @@
       <c r="F48" s="1">
         <v>5</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="O48" s="1">
-        <v>14</v>
-      </c>
-      <c r="P48" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1808,14 +1793,8 @@
       <c r="F49">
         <v>0.05</v>
       </c>
-      <c r="O49">
-        <v>0.08</v>
-      </c>
-      <c r="P49">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1834,20 +1813,14 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="O50">
-        <v>0.15</v>
-      </c>
-      <c r="P50">
-        <v>0.19</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A47:P47"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:L1"/>

--- a/Experiment results/Experiment_results (DB1).xlsx
+++ b/Experiment results/Experiment_results (DB1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Desktop/暂时不用/Code/Song_Paper7_Code/Result2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146C842-9E90-5C43-A904-D3E2CE823C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA4388-CDFC-BF47-9A4D-BF2F217D1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="500" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1791,7 +1791,7 @@
         <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1811,16 +1811,11 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A37:L37"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:L1"/>
@@ -1832,6 +1827,11 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A37:L37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
